--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B34" s="65">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B55" s="65">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B96" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
